--- a/statistics/HistoricalDistanceData/historical_distance/Q55604839-en.xlsx
+++ b/statistics/HistoricalDistanceData/historical_distance/Q55604839-en.xlsx
@@ -31,52 +31,52 @@
     <t>uri</t>
   </si>
   <si>
+    <t>Election schedule earlier this time</t>
+  </si>
+  <si>
     <t>A Q M Badruddoza Chowdhury elected president of Bangladesh</t>
   </si>
   <si>
-    <t>Election schedule earlier this time</t>
-  </si>
-  <si>
     <t>Bangladesh : Constitution and politics</t>
   </si>
   <si>
+    <t>Chowdhury, AQM Badruddoza</t>
+  </si>
+  <si>
     <t>Elections: Bangladesh Par 1 Oct 2001</t>
   </si>
   <si>
-    <t>Chowdhury, AQM Badruddoza</t>
+    <t>2018-11-07T00:00:00UTC</t>
   </si>
   <si>
     <t>2001-11-12T00:00:00UTC</t>
   </si>
   <si>
-    <t>2018-11-07T00:00:00UTC</t>
-  </si>
-  <si>
     <t>1-01-01T00:00:00UTC</t>
   </si>
   <si>
     <t>unknown</t>
   </si>
   <si>
+    <t>day_31_beyond</t>
+  </si>
+  <si>
     <t>day_0</t>
   </si>
   <si>
-    <t>day_31_beyond</t>
+    <t>https://www.thedailystar.net/country/bangladesh-general-election-can-delay-if-all-party-call-1656916</t>
   </si>
   <si>
     <t>http://zeenews.india.com/news/south-asia/a-q-m-badruddoza-chowdhury-elected-president-of-bangladesh_25616.html?pfrom=article-next-story</t>
   </si>
   <si>
-    <t>https://www.thedailystar.net/country/bangladesh-general-election-can-delay-if-all-party-call-1656916</t>
-  </si>
-  <si>
     <t>http://thecommonwealth.org/our-member-countries/bangladesh/constitution-politics</t>
   </si>
   <si>
+    <t>http://en.banglapedia.org/index.php?title=Chowdhury,_AQM_Badruddoza</t>
+  </si>
+  <si>
     <t>http://www.electionguide.org/elections/id/1322/</t>
-  </si>
-  <si>
-    <t>http://en.banglapedia.org/index.php?title=Chowdhury,_AQM_Badruddoza</t>
   </si>
 </sst>
 </file>
@@ -478,7 +478,7 @@
         <v>10</v>
       </c>
       <c r="C2">
-        <v>0</v>
+        <v>6204</v>
       </c>
       <c r="D2" t="s">
         <v>14</v>
@@ -495,7 +495,7 @@
         <v>11</v>
       </c>
       <c r="C3">
-        <v>6204</v>
+        <v>0</v>
       </c>
       <c r="D3" t="s">
         <v>15</v>
